--- a/красчету коэффициента Селиванова-1.xlsx
+++ b/красчету коэффициента Селиванова-1.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="1:39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -17149,7 +17149,10 @@
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
+      <c r="N18" s="0" t="n">
+        <f aca="false">B31*10/B11</f>
+        <v>0.213333333333333</v>
+      </c>
       <c r="O18" s="0"/>
       <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
